--- a/specific_variables/surface-temperature-profile.xlsx
+++ b/specific_variables/surface-temperature-profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/temp_out/specific_variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9B4D7B-642D-B246-814C-CA4CEAC7A246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03530C6C-29A5-A444-B78D-37CFC9CC1577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48160" yWindow="-1700" windowWidth="11120" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36420" yWindow="-1700" windowWidth="22860" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Variable</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>altitude</t>
   </si>
   <si>
     <t>type</t>
@@ -120,6 +117,12 @@
 suspect_data_instrument_error_code 
   </t>
   </si>
+  <si>
+    <t>height_above_snow_surface</t>
+  </si>
+  <si>
+    <t>&lt;derived&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -196,25 +199,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -253,6 +244,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +567,7 @@
   <dimension ref="A1:C979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C12" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -596,117 +590,127 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
+      <c r="C6" s="22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
+      <c r="C7" s="23">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
-        <v>-1E+20</v>
+      <c r="C8" s="22" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
+      <c r="C9" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.5</v>
+      <c r="C10" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="22" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -714,603 +718,600 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="12">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9">
         <v>-1E+20</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="13">
-        <v>150</v>
+        <v>14</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="13">
-        <v>303</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="15" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="14"/>
-    </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="C31" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
-      <c r="B33" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="15"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="16"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="15"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="14"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="16"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="5"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="4"/>
+      <c r="C53" s="8"/>
     </row>
     <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="11"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="4"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="2"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="18"/>
     </row>
     <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="6"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="19"/>
     </row>
     <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="19"/>
-      <c r="C60" s="23"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="2"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="4"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="11"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="4"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="2"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="18"/>
     </row>
     <row r="68" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="6"/>
-      <c r="C68" s="22"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="19"/>
     </row>
     <row r="69" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="19"/>
-      <c r="C69" s="23"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="4"/>
+      <c r="C71" s="8"/>
     </row>
     <row r="72" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="11"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="4"/>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="2"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="18"/>
     </row>
     <row r="77" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="6"/>
-      <c r="C77" s="22"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="19"/>
     </row>
     <row r="78" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="19"/>
-      <c r="C78" s="23"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="4"/>
     </row>
     <row r="80" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="4"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="11"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="4"/>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="2"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="18"/>
     </row>
     <row r="86" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="6"/>
-      <c r="C86" s="22"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="19"/>
     </row>
     <row r="87" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="19"/>
-      <c r="C87" s="23"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="4"/>
     </row>
     <row r="89" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="4"/>
+      <c r="C89" s="8"/>
     </row>
     <row r="90" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="11"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="4"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="2"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="18"/>
     </row>
     <row r="95" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="6"/>
-      <c r="C95" s="22"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="19"/>
     </row>
     <row r="96" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="19"/>
-      <c r="C96" s="23"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="4"/>
     </row>
     <row r="98" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="4"/>
+      <c r="C98" s="8"/>
     </row>
     <row r="99" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="11"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="4"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="2"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="4"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="18"/>
     </row>
     <row r="104" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="6"/>
-      <c r="C104" s="22"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="19"/>
     </row>
     <row r="105" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="19"/>
-      <c r="C105" s="23"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="4"/>
     </row>
     <row r="107" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="4"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="11"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="4"/>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="2"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="4"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="18"/>
     </row>
     <row r="113" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="6"/>
-      <c r="C113" s="22"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="19"/>
     </row>
     <row r="114" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="19"/>
-      <c r="C114" s="23"/>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="4"/>
     </row>
     <row r="116" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="20"/>
       <c r="C116" s="4"/>
     </row>
     <row r="117" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="24"/>
       <c r="C117" s="4"/>
     </row>
     <row r="118" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="4"/>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="2"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="18"/>
     </row>
     <row r="122" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="6"/>
-      <c r="C122" s="22"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="19"/>
     </row>
     <row r="123" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="19"/>
-      <c r="C123" s="23"/>
+      <c r="C123" s="4"/>
     </row>
     <row r="124" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="4"/>
     </row>
     <row r="125" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="4"/>
+      <c r="C125" s="8"/>
     </row>
     <row r="126" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="11"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="4"/>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="2"/>
     </row>
     <row r="129" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="2"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="18"/>
     </row>
     <row r="131" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="6"/>
-      <c r="C131" s="22"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="19"/>
     </row>
     <row r="132" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="19"/>
-      <c r="C132" s="23"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="4"/>
+      <c r="C134" s="8"/>
     </row>
     <row r="135" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="11"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="4"/>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="2"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="18"/>
     </row>
     <row r="140" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="6"/>
-      <c r="C140" s="22"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="19"/>
     </row>
     <row r="141" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="19"/>
-      <c r="C141" s="23"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="4"/>
     </row>
     <row r="143" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="4"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="11"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="4"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="2"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="18"/>
     </row>
     <row r="149" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="6"/>
-      <c r="C149" s="22"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="19"/>
     </row>
     <row r="150" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="19"/>
-      <c r="C150" s="23"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" s="4"/>
     </row>
     <row r="152" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="4"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="11"/>
+      <c r="C153" s="4"/>
     </row>
     <row r="154" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="4"/>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="2"/>
     </row>
     <row r="156" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="2"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="4"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="18"/>
     </row>
     <row r="158" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="6"/>
-      <c r="C158" s="22"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="19"/>
     </row>
     <row r="159" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="19"/>
-      <c r="C159" s="23"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C160" s="4"/>
     </row>
     <row r="161" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="4"/>
+      <c r="C161" s="8"/>
     </row>
     <row r="162" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="11"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="4"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="2"/>
     </row>
     <row r="165" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C165" s="2"/>
+      <c r="C165" s="4"/>
     </row>
     <row r="166" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="4"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="18"/>
     </row>
     <row r="167" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="6"/>
-      <c r="C167" s="22"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="19"/>
     </row>
     <row r="168" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B168" s="19"/>
-      <c r="C168" s="23"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C169" s="4"/>
@@ -1322,111 +1323,111 @@
       <c r="C171" s="4"/>
     </row>
     <row r="172" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="4"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C173" s="2"/>
     </row>
     <row r="174" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="2"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C175" s="4"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="18"/>
     </row>
     <row r="176" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="6"/>
-      <c r="C176" s="22"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="19"/>
     </row>
     <row r="177" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="19"/>
-      <c r="C177" s="23"/>
+      <c r="C177" s="4"/>
     </row>
     <row r="178" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C178" s="4"/>
     </row>
     <row r="179" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="4"/>
+      <c r="C179" s="8"/>
     </row>
     <row r="180" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="11"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="4"/>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C182" s="2"/>
     </row>
     <row r="183" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C183" s="2"/>
+      <c r="C183" s="4"/>
     </row>
     <row r="184" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C184" s="4"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="18"/>
     </row>
     <row r="185" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="6"/>
-      <c r="C185" s="22"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="19"/>
     </row>
     <row r="186" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B186" s="19"/>
-      <c r="C186" s="23"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C187" s="4"/>
     </row>
     <row r="188" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C188" s="4"/>
+      <c r="C188" s="8"/>
     </row>
     <row r="189" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C189" s="11"/>
+      <c r="C189" s="4"/>
     </row>
     <row r="190" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C190" s="4"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C191" s="2"/>
     </row>
     <row r="192" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C192" s="2"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C193" s="4"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="18"/>
     </row>
     <row r="194" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="6"/>
-      <c r="C194" s="22"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="19"/>
     </row>
     <row r="195" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="19"/>
-      <c r="C195" s="23"/>
+      <c r="C195" s="4"/>
     </row>
     <row r="196" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="4"/>
+      <c r="C197" s="8"/>
     </row>
     <row r="198" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="11"/>
+      <c r="C198" s="4"/>
     </row>
     <row r="199" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C199" s="4"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C200" s="2"/>
     </row>
     <row r="201" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C201" s="2"/>
+      <c r="C201" s="4"/>
     </row>
     <row r="202" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C202" s="4"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="18"/>
     </row>
     <row r="203" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="6"/>
-      <c r="C203" s="22"/>
+      <c r="B203" s="15"/>
+      <c r="C203" s="19"/>
     </row>
     <row r="204" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B204" s="19"/>
-      <c r="C204" s="23"/>
+      <c r="C204" s="4"/>
     </row>
     <row r="205" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C205" s="4"/>
@@ -3750,9 +3751,7 @@
     <row r="978" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C978" s="4"/>
     </row>
-    <row r="979" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C979" s="4"/>
-    </row>
+    <row r="979" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/specific_variables/surface-temperature-profile.xlsx
+++ b/specific_variables/surface-temperature-profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03530C6C-29A5-A444-B78D-37CFC9CC1577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D14FCD7-0477-4541-B89D-C31AEC29B2B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36420" yWindow="-1700" windowWidth="22860" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="460" windowWidth="22860" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Variable</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Z</t>
-  </si>
-  <si>
-    <t>valid_min</t>
-  </si>
-  <si>
-    <t>valid_max</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -119,9 +113,6 @@
   </si>
   <si>
     <t>height_above_snow_surface</t>
-  </si>
-  <si>
-    <t>&lt;derived&gt;</t>
   </si>
 </sst>
 </file>
@@ -567,7 +558,7 @@
   <dimension ref="A1:C979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A2:C12"/>
+      <selection activeCell="C20" sqref="A19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -591,7 +582,7 @@
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -629,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -653,198 +644,184 @@
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="7"/>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C18" s="9">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="9">
-        <v>-1E+20</v>
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>7</v>
+      <c r="B28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
-      <c r="B32" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
@@ -852,19 +829,19 @@
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="11"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="10"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
@@ -874,22 +851,22 @@
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="10"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
@@ -897,534 +874,526 @@
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="10"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="12"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="10"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="14"/>
-    </row>
-    <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-    </row>
-    <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="5"/>
+      <c r="C54" s="18"/>
+    </row>
+    <row r="55" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="15"/>
+      <c r="C55" s="19"/>
+    </row>
+    <row r="56" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="5"/>
-      <c r="C58" s="18"/>
-    </row>
-    <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="15"/>
-      <c r="C59" s="19"/>
-    </row>
-    <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="2"/>
+    <row r="61" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="5"/>
+      <c r="C63" s="18"/>
+    </row>
+    <row r="64" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="15"/>
+      <c r="C64" s="19"/>
     </row>
     <row r="65" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="2"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="4"/>
     </row>
     <row r="67" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="5"/>
-      <c r="C67" s="18"/>
+      <c r="C67" s="8"/>
     </row>
     <row r="68" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="15"/>
-      <c r="C68" s="19"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="4"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="4"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="8"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="18"/>
     </row>
     <row r="73" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="2"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="19"/>
     </row>
     <row r="74" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="2"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="5"/>
-      <c r="C76" s="18"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="15"/>
-      <c r="C77" s="19"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="4"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="4"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="8"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="18"/>
     </row>
     <row r="82" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="2"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="19"/>
     </row>
     <row r="83" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="2"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="4"/>
     </row>
     <row r="85" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="5"/>
-      <c r="C85" s="18"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="15"/>
-      <c r="C86" s="19"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="4"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="4"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="8"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="18"/>
     </row>
     <row r="91" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="2"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="19"/>
     </row>
     <row r="92" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="2"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="4"/>
     </row>
     <row r="94" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="5"/>
-      <c r="C94" s="18"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="15"/>
-      <c r="C95" s="19"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="4"/>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="4"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="8"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="4"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="18"/>
     </row>
     <row r="100" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="2"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="19"/>
     </row>
     <row r="101" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="2"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="4"/>
     </row>
     <row r="103" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="5"/>
-      <c r="C103" s="18"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="15"/>
-      <c r="C104" s="19"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="4"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="4"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="8"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="18"/>
     </row>
     <row r="109" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="2"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="19"/>
     </row>
     <row r="110" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="2"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="4"/>
     </row>
     <row r="112" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="5"/>
-      <c r="C112" s="18"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="15"/>
-      <c r="C113" s="19"/>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="4"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="4"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="20"/>
       <c r="C116" s="4"/>
     </row>
     <row r="117" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="18"/>
     </row>
     <row r="118" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="2"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="19"/>
     </row>
     <row r="119" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="2"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="4"/>
     </row>
     <row r="121" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="5"/>
-      <c r="C121" s="18"/>
+      <c r="C121" s="8"/>
     </row>
     <row r="122" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="15"/>
-      <c r="C122" s="19"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="4"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="4"/>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="8"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="18"/>
     </row>
     <row r="127" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="2"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="19"/>
     </row>
     <row r="128" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="2"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="4"/>
     </row>
     <row r="130" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="5"/>
-      <c r="C130" s="18"/>
+      <c r="C130" s="8"/>
     </row>
     <row r="131" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="15"/>
-      <c r="C131" s="19"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="4"/>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="4"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="8"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="18"/>
     </row>
     <row r="136" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="2"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="19"/>
     </row>
     <row r="137" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="2"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="4"/>
     </row>
     <row r="139" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="5"/>
-      <c r="C139" s="18"/>
+      <c r="C139" s="8"/>
     </row>
     <row r="140" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="15"/>
-      <c r="C140" s="19"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="4"/>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="4"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="8"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="18"/>
     </row>
     <row r="145" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="2"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="19"/>
     </row>
     <row r="146" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="2"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="4"/>
     </row>
     <row r="148" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="5"/>
-      <c r="C148" s="18"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="15"/>
-      <c r="C149" s="19"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="4"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="4"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="8"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="18"/>
     </row>
     <row r="154" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="2"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="19"/>
     </row>
     <row r="155" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="2"/>
+      <c r="C155" s="4"/>
     </row>
     <row r="156" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C156" s="4"/>
     </row>
     <row r="157" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="5"/>
-      <c r="C157" s="18"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="15"/>
-      <c r="C158" s="19"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="4"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="4"/>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="8"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="18"/>
     </row>
     <row r="163" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="2"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="19"/>
     </row>
     <row r="164" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="2"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C165" s="4"/>
     </row>
     <row r="166" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="5"/>
-      <c r="C166" s="18"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="15"/>
-      <c r="C167" s="19"/>
+      <c r="C167" s="4"/>
     </row>
     <row r="168" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="4"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="4"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C170" s="4"/>
     </row>
     <row r="171" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C171" s="4"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="18"/>
     </row>
     <row r="172" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="2"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="19"/>
     </row>
     <row r="173" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="2"/>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C174" s="4"/>
     </row>
     <row r="175" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="5"/>
-      <c r="C175" s="18"/>
+      <c r="C175" s="8"/>
     </row>
     <row r="176" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="15"/>
-      <c r="C176" s="19"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="4"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="4"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="8"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="4"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="18"/>
     </row>
     <row r="181" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="2"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="19"/>
     </row>
     <row r="182" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="2"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C183" s="4"/>
     </row>
     <row r="184" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="5"/>
-      <c r="C184" s="18"/>
+      <c r="C184" s="8"/>
     </row>
     <row r="185" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="15"/>
-      <c r="C185" s="19"/>
+      <c r="C185" s="4"/>
     </row>
     <row r="186" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C186" s="4"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C187" s="4"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C188" s="8"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C189" s="4"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="18"/>
     </row>
     <row r="190" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C190" s="2"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="19"/>
     </row>
     <row r="191" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C191" s="2"/>
+      <c r="C191" s="4"/>
     </row>
     <row r="192" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C192" s="4"/>
     </row>
     <row r="193" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="5"/>
-      <c r="C193" s="18"/>
+      <c r="C193" s="8"/>
     </row>
     <row r="194" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="15"/>
-      <c r="C194" s="19"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C195" s="4"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="4"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="8"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="4"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="18"/>
     </row>
     <row r="199" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C199" s="2"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="19"/>
     </row>
     <row r="200" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C200" s="2"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C201" s="4"/>
     </row>
     <row r="202" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="5"/>
-      <c r="C202" s="18"/>
+      <c r="C202" s="4"/>
     </row>
     <row r="203" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="15"/>
-      <c r="C203" s="19"/>
+      <c r="C203" s="4"/>
     </row>
     <row r="204" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C204" s="4"/>
@@ -3739,19 +3708,11 @@
     <row r="974" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C974" s="4"/>
     </row>
-    <row r="975" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C975" s="4"/>
-    </row>
-    <row r="976" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C976" s="4"/>
-    </row>
-    <row r="977" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C977" s="4"/>
-    </row>
-    <row r="978" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C978" s="4"/>
-    </row>
-    <row r="979" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/specific_variables/surface-temperature-profile.xlsx
+++ b/specific_variables/surface-temperature-profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D14FCD7-0477-4541-B89D-C31AEC29B2B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07567464-5681-904F-8AC1-43E111A4E024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="460" windowWidth="22860" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="22860" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -103,16 +103,16 @@
     <t>Height above snow surface</t>
   </si>
   <si>
-    <t>0, 1, 2</t>
+    <t>height_above_snow_surface</t>
   </si>
   <si>
-    <t xml:space="preserve">no_data,   
-good_data, 
-suspect_data_instrument_error_code 
-  </t>
+    <t>0b,1b, 2b, 3b</t>
   </si>
   <si>
-    <t>height_above_snow_surface</t>
+    <t>no_data
+good_data 
+bad_data_temperature_outside_sensor_operational_range
+bad_data_unspecified_instrument_error</t>
   </si>
 </sst>
 </file>
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -232,12 +232,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +565,7 @@
   <dimension ref="A1:C979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="A19:C20"/>
+      <selection activeCell="B28" sqref="B28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -581,81 +588,81 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>-1E+20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -782,20 +789,20 @@
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>27</v>
+      <c r="C27" s="25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>28</v>
+      <c r="C28" s="27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/specific_variables/surface-temperature-profile.xlsx
+++ b/specific_variables/surface-temperature-profile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07567464-5681-904F-8AC1-43E111A4E024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FB23D7-F9FD-1A43-AD56-695139718AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="22860" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,13 +106,10 @@
     <t>height_above_snow_surface</t>
   </si>
   <si>
-    <t>0b,1b, 2b, 3b</t>
+    <t>0, 1, 2, 3</t>
   </si>
   <si>
-    <t>no_data
-good_data 
-bad_data_temperature_outside_sensor_operational_range
-bad_data_unspecified_instrument_error</t>
+    <t>not_used good_data bad_data_temperature_outside_sensor_operational_range bad_data_unspecified_instrument_error</t>
   </si>
 </sst>
 </file>
@@ -565,7 +562,7 @@
   <dimension ref="A1:C979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
